--- a/INDIVIDUAL_ARGUMENTS/india_no.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/india_no.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="173" firstSheet="0" activeTab="0"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-  </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>#id</t>
   </si>
@@ -29,190 +28,286 @@
     <t>India will not lead the world because the gap between the rich and poor is too great and they still heavily believe in the caste system.</t>
   </si>
   <si>
+    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg133652</t>
   </si>
   <si>
     <t>wow! syona i m very much impressed by your views. from where did you get these unique datas,i kindly request you to submit more pts. like all these plz. don't mind my words syona, but all these special datas are accurate?reply me soon!</t>
   </si>
   <si>
+    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg649666</t>
   </si>
   <si>
     <t>India has Strong Military Neighbors (China &amp; Pakistan)...India has bad relation with Pakistan as they have territorial disputes and also fought 4 wars for this... and as far as china , India relation also become tense with china...due rise of territorial disputes and India interference in Pakistan....as Pakistan China has long term plans ....for example Pak China Economic Corridor and Gawadar Mega Oil City....</t>
   </si>
   <si>
+    <t>413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
+  </si>
+  <si>
     <t>arg124182</t>
   </si>
   <si>
     <t>i strongly believe that India cannot lead . u people talk about the 7th , 3rd , 2nd rank of India in area defense and arable land respectively but here we r talking about the supreme power we cant rely on 2nd or 3rd. moreover the people r lazy they don't have the time 2 think about country's development they r happy at their home.</t>
   </si>
   <si>
+    <t>332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
+  </si>
+  <si>
     <t>arg128469</t>
   </si>
   <si>
     <t>First of, India does NOT have the potential to "rule" the world because have you seen the people? Good Indian people with good minds are in some foreign country getting a Nobel prize while the others are just stuck ups who don't do anything and push the people who come up, down. Nobody actually lets anyone succeed. That's why!</t>
   </si>
   <si>
+    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0</t>
+  </si>
+  <si>
     <t>arg155750</t>
   </si>
   <si>
     <t>stupid india they actually really suck. so, BOO INDIA BOO!</t>
   </si>
   <si>
+    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0</t>
+  </si>
+  <si>
     <t>arg206923</t>
   </si>
   <si>
     <t>this does not even make sense no one country should lead the world we all started together and thats the way it should end and everyone has there ways this is just not logical at all</t>
   </si>
   <si>
+    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg133725</t>
   </si>
   <si>
     <t>i m student of class 11 .I have to take part in dbt. that' s why asked you,plz.give me more datas.i will be highly obliged to you.</t>
   </si>
   <si>
+    <t>130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg108959</t>
   </si>
   <si>
     <t>india is is good adopter but a bad developer and leader should be a great developer.</t>
   </si>
   <si>
+    <t>84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg123962</t>
   </si>
   <si>
     <t>Ha ha, no.  India was most successful when it was ruled by other empires, they cant even lead themselves.</t>
   </si>
   <si>
+    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg125382</t>
   </si>
   <si>
     <t>with the cream layer quota system i don't prefer india to be leading the world in near future.....  yes india have the potential.. but corruption , this quota system ( not helpful to anyone) , and the main reason brain drain , don't specialy help india in the matter....</t>
   </si>
   <si>
+    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0</t>
+  </si>
+  <si>
     <t>arg118518</t>
   </si>
   <si>
     <t>India... where they have like a whole class of opressed people and a huge wealth differences? And with a language that the majority of the world can't understand and doesn't want to understand? India's education quality has nothing compared to Western education and it's the superpowers that control the world's economy.  I highly doubt India will ever lead the world, and it doesn't even have the potential to. It should leave that to the superpowers.</t>
   </si>
   <si>
+    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
+  </si>
+  <si>
     <t>arg106123</t>
   </si>
   <si>
     <t>Hahaha really?  This debate is ridiculous.  NO they don't.  They're practically a 3rd world country.</t>
   </si>
   <si>
+    <t>100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg126375</t>
   </si>
   <si>
     <t>well, India is finding difficult to manage itself first...so there's no question of leading the world so far....but still if we compare so lets have a look at the following points:  1. almost 90% of India is illiterate(don't be sure of the percentage), so an illiterate country can't lead the world....  2.India is more into castes, politics, religions and less into development.  3.the most important thing is that India doesn't have confidence on itself and is still cursing itself...  So if it goes on so then it is difficult or even impossible to say that "INDIA WILL LEAD THE WORLD WHEN IT CANNOT LEAD ITSELF!!"</t>
   </si>
   <si>
+    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
+  </si>
+  <si>
     <t>arg127723</t>
   </si>
   <si>
     <t>I HAVE TO SAY BUT JUST 1 WORD: CORRUPTION, CORRUPTION &amp; CORRUPTION........</t>
   </si>
   <si>
+    <t>74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg118415</t>
   </si>
   <si>
     <t>As we know that India is fully filled with corruption. Each and every person have no time to help others, his only aim is to earn money in any way.Our manners and civilization are reducing and reducing every day.</t>
   </si>
   <si>
+    <t>212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg145468</t>
   </si>
   <si>
     <t>All we can say is a big IF because we are not yet 100% sure if this nation itself could lead the whole world. Who knows maybe in the future that India could fail to lead us. There are still other countries who are more progressive, more literated, more powerful than India, like the USA, United Kingdom, Russia, Japan, etc. This nation doesn't have yet enought potentials and ability to sustain the needs of the people. India is not yet that full of technologies like in the Americas. Well in fact technology is one of the most sophisticated and essential inventions ever created.</t>
   </si>
   <si>
+    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg123178</t>
   </si>
   <si>
     <t>i think with this growing condition Idia cannot replace other developed countries like USA LONDON AND other countries.  Because most of the people are illitrate here so i think india cant.</t>
   </si>
   <si>
+    <t>188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg129488</t>
   </si>
   <si>
     <t>Russell Peters is a master at making fun of these people.</t>
   </si>
   <si>
+    <t>57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg207311</t>
   </si>
   <si>
     <t>nope last time i checked rags were for scrubbing toilets not fricken headgear. Whooo! USA</t>
   </si>
   <si>
+    <t>89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0</t>
+  </si>
+  <si>
     <t>arg119997</t>
   </si>
   <si>
     <t>The increasing population means less land, and less land means a big crowd on every place. India is able to win gold medal of corrosion, terrorism , illeteracy, violence, etc.</t>
   </si>
   <si>
+    <t>175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg106273</t>
   </si>
   <si>
     <t>India will never lead the world as long as no one can understand what they are saying with their freaking accent ;)</t>
   </si>
   <si>
+    <t>115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0</t>
+  </si>
+  <si>
     <t>arg122478</t>
   </si>
   <si>
     <t>i think, the india is not ready to lead the world because of many reasons..  1.) the politians of our country are involved in black money cases. they try to gain or earn money as possible.  2.) they always try to make a big issue of useless topics. e.g., if a politian says something about another politian, they try to make it a big issue .</t>
   </si>
   <si>
+    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0</t>
+  </si>
+  <si>
     <t>arg110540</t>
   </si>
   <si>
     <t>no way! screw off! China will dominate, if not, US will. india will never get the chance to ruin the world!</t>
   </si>
   <si>
+    <t>107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0</t>
+  </si>
+  <si>
     <t>arg108968</t>
   </si>
   <si>
     <t>When the U.S. fought the Brits for their independence, the Brits wore a red uniform. Every time the Americans saw a British soldier, they would yell, "The red coats are coming, the red coats are coming."  If India ever tried to take over the U.S., Americans would be forced to yell, "The red dots are coming, the red dots are coming." ;)</t>
   </si>
   <si>
+    <t>337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0</t>
+  </si>
+  <si>
     <t>arg132199</t>
   </si>
   <si>
     <t>according to a recent report 50% scientists in NASA are indian IITians, just imagine that if those scientists will join ISRO then our status,value and astronomical knowledge of india will definetly increase.  Now,think abt. IITians,students who are qualifying iit, they are known to be superbrain.If India is capable of opening hitech institutions,then why we are unable provide them a perfect job of their level.we are giving international status of education.then why unable to take best advantages from them.this is due to brain drain,lack of industrial development,suitable working environment as well as proper salary.so its the need of the hour to improve our industrial sector.</t>
   </si>
   <si>
+    <t>684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
+  </si>
+  <si>
     <t>arg217848</t>
   </si>
   <si>
     <t>Why should India lead the world???!!!  Kill all the politicians first and India will be developed tomorrow.</t>
   </si>
   <si>
+    <t>107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg105946</t>
   </si>
   <si>
     <t>Nah, they can't even organize their damned streets! They bathe in the same river in which they bury their dead and defecate in - the Ganges! They're extremely poor - they can't even manage their own budget, much less a planet!  I'm going to get down-voted and insulted, but everything I have written is the truth.</t>
   </si>
   <si>
+    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2</t>
+  </si>
+  <si>
     <t>arg133726</t>
   </si>
   <si>
     <t>syona if look at glance, then most of us are unable to specify any solid solutions by which we can remove the hurdle in our progress from root.we all are very much aware of problems but unable to give solutions.they are criticizing government,terrorism and so on.no one realizes that being a citizen what is our duty?  everyone should understand abt. their importance and role for country.Because a good citizen,a criminal,terrorist,corrupted politician, everyone is human, then why a human is creating problem for another human.I hope you will think my views and reply me soon.</t>
   </si>
   <si>
+    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2</t>
+  </si>
+  <si>
     <t>arg118214</t>
   </si>
   <si>
     <t>i dont think soooo even as an indian citizen.........because of soo much unemployment i dont think the gdp of india will increase in the next 5 years....... they dont even have enough funds to feed all the poor..how can we even imagine them to lead the world...........</t>
   </si>
   <si>
+    <t>269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg110562</t>
   </si>
   <si>
     <t>India does not have the potential to lead the world because the country is full of corruption, corruption in politicians ,numerous religion, fight between various religions, and a lot more............................</t>
   </si>
   <si>
+    <t>216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg118660</t>
   </si>
   <si>
     <t>India has the potential to lead because it has the second largest man power n third largest army in the world n it is a country full of hopes n aspirations n for Indians nothing is impossible, n we r proud to be Indians n we will lead the world n be the king of the world in every manner. even 34% scientists in NASA are Indians.</t>
+  </si>
+  <si>
+    <t>329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0</t>
   </si>
 </sst>
 </file>
@@ -220,40 +315,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -261,341 +360,705 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="1"/>
+    <cellStyle builtinId="5" name="Percent" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="3" name="Comma" xfId="4"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B33" activeCellId="0" pane="topLeft" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.90816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="208.821428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col customWidth="1" max="1" min="1" style="1" width="9.90816326530612"/>
+    <col customWidth="1" max="2" min="2" style="1" width="208.821428571429"/>
+    <col customWidth="1" max="1025" min="3" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row customHeight="1" s="2" r="1" ht="12.8" spans="1:3">
+      <c s="1" r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c s="1" r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row customHeight="1" s="2" r="2" ht="12.8" spans="1:3">
+      <c s="1" r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c s="1" r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row customHeight="1" s="2" r="3" ht="12.8" spans="1:3">
+      <c s="1" r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c s="1" r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row customHeight="1" s="2" r="4" ht="12.8" spans="1:3">
+      <c s="1" r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c s="1" r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row customHeight="1" s="2" r="5" ht="12.8" spans="1:3">
+      <c s="1" r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c s="1" r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row customHeight="1" s="2" r="6" ht="12.8" spans="1:3">
+      <c s="1" r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c s="1" r="B6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row customHeight="1" s="2" r="7" ht="12.8" spans="1:3">
+      <c s="1" r="A7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c s="1" r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row customHeight="1" s="2" r="8" ht="12.8" spans="1:3">
+      <c s="1" r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c s="1" r="B8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
+    </row>
+    <row customHeight="1" s="2" r="9" ht="12.8" spans="1:3">
+      <c s="1" r="A9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c s="1" r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row customHeight="1" s="2" r="10" ht="12.8" spans="1:3">
+      <c s="1" r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c s="1" r="B10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="0" t="s">
+    </row>
+    <row customHeight="1" s="2" r="11" ht="12.8" spans="1:3">
+      <c s="1" r="A11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c s="1" r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row customHeight="1" s="2" r="12" ht="12.8" spans="1:3">
+      <c s="1" r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c s="1" r="B12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="0" t="s">
+    </row>
+    <row customHeight="1" s="2" r="13" ht="12.8" spans="1:3">
+      <c s="1" r="A13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c s="1" r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row customHeight="1" s="2" r="14" ht="12.8" spans="1:3">
+      <c s="1" r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c s="1" r="B14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="0" t="s">
+    </row>
+    <row customHeight="1" s="2" r="15" ht="12.8" spans="1:3">
+      <c s="1" r="A15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c s="1" r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row customHeight="1" s="2" r="16" ht="12.8" spans="1:3">
+      <c s="1" r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c s="1" r="B16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="0" t="s">
+    </row>
+    <row customHeight="1" s="2" r="17" ht="12.8" spans="1:3">
+      <c s="1" r="A17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c s="1" r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="C17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row customHeight="1" s="2" r="18" ht="12.8" spans="1:3">
+      <c s="1" r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c s="1" r="B18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="0" t="s">
+    </row>
+    <row customHeight="1" s="2" r="19" ht="12.8" spans="1:3">
+      <c s="1" r="A19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c s="1" r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row customHeight="1" s="2" r="20" ht="12.8" spans="1:3">
+      <c s="1" r="A20" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c s="1" r="B20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="0" t="s">
+    </row>
+    <row customHeight="1" s="2" r="21" ht="12.8" spans="1:3">
+      <c s="1" r="A21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c s="1" r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row customHeight="1" s="2" r="22" ht="12.8" spans="1:3">
+      <c s="1" r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c s="1" r="B22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="0" t="s">
+    </row>
+    <row customHeight="1" s="2" r="23" ht="12.8" spans="1:3">
+      <c s="1" r="A23" t="s">
         <v>65</v>
       </c>
+      <c s="1" r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row customHeight="1" s="2" r="24" ht="12.8" spans="1:3">
+      <c s="1" r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c s="1" r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row customHeight="1" s="2" r="25" ht="12.8" spans="1:3">
+      <c s="1" r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c s="1" r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row customHeight="1" s="2" r="26" ht="12.8" spans="1:3">
+      <c s="1" r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c s="1" r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row customHeight="1" s="2" r="27" ht="12.8" spans="1:3">
+      <c s="1" r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row customHeight="1" s="2" r="28" ht="12.8" spans="1:3">
+      <c s="1" r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c s="1" r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row customHeight="1" s="2" r="29" ht="12.8" spans="1:3">
+      <c s="1" r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c s="1" r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row customHeight="1" s="2" r="30" ht="12.8" spans="1:3">
+      <c s="1" r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c s="1" r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row customHeight="1" s="2" r="31" ht="12.8" spans="1:3">
+      <c s="1" r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c s="1" r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row customHeight="1" s="2" r="32" ht="12.8" spans="1:3">
+      <c s="1" r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c s="1" r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row customHeight="1" s="2" r="33" ht="12.8" spans="1:3">
+      <c s="1" r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c s="1" r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INDIVIDUAL_ARGUMENTS/india_no.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/india_no.xlsx
@@ -28,7 +28,7 @@
     <t>India will not lead the world because the gap between the rich and poor is too great and they still heavily believe in the caste system.</t>
   </si>
   <si>
-    <t>136,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.7,0.15,0.2,0.15,0.0,0.0</t>
+    <t>26.0,5.23,0.59,0.42,1.41,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.19,0.12,0.12,0.15,0.15,0.04,0.0,0.0,0.0,0.0,4.6</t>
   </si>
   <si>
     <t>arg133652</t>
@@ -37,7 +37,7 @@
     <t>wow! syona i m very much impressed by your views. from where did you get these unique datas,i kindly request you to submit more pts. like all these plz. don't mind my words syona, but all these special datas are accurate?reply me soon!</t>
   </si>
   <si>
-    <t>235,0.2,10.44,0.0,0.19,1.2,0.0,0.0,0.0,0.1,0.0,0.0,0.0,0.0</t>
+    <t>8.6,5.47,0.97,2.09,0.46,0.2,10.44,0.0,0.19,1.2,0,0,0.0,0.0,0.0,0.23,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,0.94</t>
   </si>
   <si>
     <t>arg649666</t>
@@ -46,7 +46,7 @@
     <t>India has Strong Military Neighbors (China &amp; Pakistan)...India has bad relation with Pakistan as they have territorial disputes and also fought 4 wars for this... and as far as china , India relation also become tense with china...due rise of territorial disputes and India interference in Pakistan....as Pakistan China has long term plans ....for example Pak China Economic Corridor and Gawadar Mega Oil City....</t>
   </si>
   <si>
-    <t>413,2.0,19.76,0.0,0.1,21.0,0.0,0.0,3.52,0.15,0.1,0.1,0.1,0.0</t>
+    <t>64.0,6.45,1.45,0.42,3.46,2.0,19.76,0.0,0.1,21.0,1,0,0.0,0.0,3.52,0.28,0.11,0.11,0.06,0.06,0.02,0.03,0.06,0.0,0.0,1.11</t>
   </si>
   <si>
     <t>arg124182</t>
@@ -55,7 +55,7 @@
     <t>i strongly believe that India cannot lead . u people talk about the 7th , 3rd , 2nd rank of India in area defense and arable land respectively but here we r talking about the supreme power we cant rely on 2nd or 3rd. moreover the people r lazy they don't have the time 2 think about country's development they r happy at their home.</t>
   </si>
   <si>
-    <t>332,0.67,13.38,0.0,0.02,1.0,0.0,0.0,0.7,0.15,0.2,0.25,0.05,0.2</t>
+    <t>21.67,5.11,1.47,1.26,1.17,0.67,13.38,0.0,0.02,1.0,6,0,0.0,0.0,0.7,0.15,0.08,0.14,0.08,0.08,0.08,0.02,0.0,0.2,0.2,2.61</t>
   </si>
   <si>
     <t>arg128469</t>
@@ -64,7 +64,7 @@
     <t>First of, India does NOT have the potential to "rule" the world because have you seen the people? Good Indian people with good minds are in some foreign country getting a Nobel prize while the others are just stuck ups who don't do anything and push the people who come up, down. Nobody actually lets anyone succeed. That's why!</t>
   </si>
   <si>
-    <t>328,0.25,13.59,0.0,0.0,1.0,0.0,0.02,0.7,0.15,0.35,0.3,0.05,0.0</t>
+    <t>14.75,5.56,1.34,1.68,0.8,0.25,13.59,0.0,0.0,1.0,0,0,0.0,0.02,0.7,0.15,0.1,0.24,0.05,0.05,0.02,0.0,0.0,0.0,0.0,3.38</t>
   </si>
   <si>
     <t>arg155750</t>
@@ -73,7 +73,7 @@
     <t>stupid india they actually really suck. so, BOO INDIA BOO!</t>
   </si>
   <si>
-    <t>58,0.0,10.62,2.0,0.0,1.0,0.0,0.3,0.0,0.05,0.05,0.05,0.05,0.0</t>
+    <t>5.0,5.8,0.23,0.84,0.27,0.0,10.62,2.0,0.0,1.0,0,0,0.0,0.3,0.0,0.4,0.2,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,1.0</t>
   </si>
   <si>
     <t>arg206923</t>
@@ -82,7 +82,7 @@
     <t>this does not even make sense no one country should lead the world we all started together and thats the way it should end and everyone has there ways this is just not logical at all</t>
   </si>
   <si>
-    <t>182,0.0,13.1,0.0,0.03,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>36.0,5.06,0.82,0.42,1.95,0.0,13.1,0.0,0.03,0.0,0,0,0.0,0.0,0.0,0.11,0.03,0.22,0.14,0.14,0.06,0.0,0.0,0.0,0.0,6.0</t>
   </si>
   <si>
     <t>arg133725</t>
@@ -91,7 +91,7 @@
     <t>i m student of class 11 .I have to take part in dbt. that' s why asked you,plz.give me more datas.i will be highly obliged to you.</t>
   </si>
   <si>
-    <t>130,0.0,7.21,0.0,0.19,2.5,0.0,0.07,0.0,0.05,0.0,0.0,0.0,0.0</t>
+    <t>13.5,4.81,0.61,0.84,0.73,0.0,7.21,0.0,0.19,2.5,2,0,0.0,0.07,0.0,0.19,0.11,0.26,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89</t>
   </si>
   <si>
     <t>arg108959</t>
@@ -100,7 +100,7 @@
     <t>india is is good adopter but a bad developer and leader should be a great developer.</t>
   </si>
   <si>
-    <t>84,1.0,12.85,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
+    <t>16.0,5.25,0.36,0.42,0.86,1.0,12.85,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.25,0.19,0.19,0.0,0.0,0.0,0.0,0.0,0.0,0.0,1.71</t>
   </si>
   <si>
     <t>arg123962</t>
@@ -109,7 +109,7 @@
     <t>Ha ha, no.  India was most successful when it was ruled by other empires, they cant even lead themselves.</t>
   </si>
   <si>
-    <t>105,0.0,12.03,0.0,0.0,1.0,0.0,0.0,0.7,0.0,0.1,0.1,0.0,0.0</t>
+    <t>9.5,5.53,0.43,0.84,0.51,0.0,12.03,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.16,0.16,0.26,0.11,0.11,0.11,0.05,0.06,0.0,0.0,3.83</t>
   </si>
   <si>
     <t>arg125382</t>
@@ -118,7 +118,7 @@
     <t>with the cream layer quota system i don't prefer india to be leading the world in near future.....  yes india have the potential.. but corruption , this quota system ( not helpful to anyone) , and the main reason brain drain , don't specialy help india in the matter....</t>
   </si>
   <si>
-    <t>270,1.0,14.66,0.0,0.02,11.0,0.0,0.0,0.0,0.25,0.3,0.25,0.05,0.0</t>
+    <t>49.0,5.51,1.11,0.42,2.65,1.0,14.66,0.0,0.02,11.0,0,0,0.0,0.0,0.0,0.29,0.06,0.18,0.02,0.02,0.0,0.02,0.0,0.0,0.0,3.56</t>
   </si>
   <si>
     <t>arg118518</t>
@@ -127,7 +127,7 @@
     <t>India... where they have like a whole class of opressed people and a huge wealth differences? And with a language that the majority of the world can't understand and doesn't want to understand? India's education quality has nothing compared to Western education and it's the superpowers that control the world's economy.  I highly doubt India will ever lead the world, and it doesn't even have the potential to. It should leave that to the superpowers.</t>
   </si>
   <si>
-    <t>452,0.0,15.7,0.0,0.01,1.6,0.0,0.0,0.7,0.2,0.3,0.3,0.05,0.2</t>
+    <t>15.0,6.03,1.7,2.09,0.81,0.0,15.7,0.0,0.01,1.6,0,0,0.0,0.0,0.7,0.24,0.07,0.15,0.05,0.05,0.05,0.04,0.06,0.2,0.2,3.17</t>
   </si>
   <si>
     <t>arg106123</t>
@@ -136,7 +136,7 @@
     <t>Hahaha really?  This debate is ridiculous.  NO they don't.  They're practically a 3rd world country.</t>
   </si>
   <si>
-    <t>100,0.0,10.6,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>3.75,6.67,0.34,1.68,0.2,0.0,10.6,0.0,0.0,1.0,1,0,0.0,0.07,0.0,0.2,0.07,0.13,0.07,0.07,0.07,0.13,0.06,0.0,0.0,4.67</t>
   </si>
   <si>
     <t>arg126375</t>
@@ -145,7 +145,7 @@
     <t>well, India is finding difficult to manage itself first...so there's no question of leading the world so far....but still if we compare so lets have a look at the following points:  1. almost 90% of India is illiterate(don't be sure of the percentage), so an illiterate country can't lead the world....  2.India is more into castes, politics, religions and less into development.  3.the most important thing is that India doesn't have confidence on itself and is still cursing itself...  So if it goes on so then it is difficult or even impossible to say that "INDIA WILL LEAD THE WORLD WHEN IT CANNOT LEAD ITSELF!!"</t>
   </si>
   <si>
-    <t>616,0.0,14.95,0.0,0.05,6.67,0.0,0.11,1.41,0.2,0.2,0.3,0.1,0.2</t>
+    <t>35.0,5.87,2.38,1.26,1.89,0.0,14.95,0.0,0.05,6.67,5,1,0.0,0.11,1.41,0.17,0.12,0.19,0.1,0.1,0.05,0.05,0.22,0.2,0.2,2.91</t>
   </si>
   <si>
     <t>arg127723</t>
@@ -154,7 +154,7 @@
     <t>I HAVE TO SAY BUT JUST 1 WORD: CORRUPTION, CORRUPTION &amp; CORRUPTION........</t>
   </si>
   <si>
-    <t>74,1.0,16.52,0.0,0.0,8.0,0.0,0.75,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>12.0,6.17,0.27,0.42,0.65,1.0,16.52,0.0,0.0,8.0,1,0,0.0,0.75,0.0,0.33,0.0,0.17,0.0,0.0,0.08,0.08,0.0,0.0,0.0,4.5</t>
   </si>
   <si>
     <t>arg118415</t>
@@ -163,7 +163,7 @@
     <t>As we know that India is fully filled with corruption. Each and every person have no time to help others, his only aim is to earn money in any way.Our manners and civilization are reducing and reducing every day.</t>
   </si>
   <si>
-    <t>212,0.0,13.74,0.0,0.03,1.5,0.0,0.0,0.7,0.2,0.15,0.2,0.0,0.0</t>
+    <t>19.5,5.44,0.88,0.84,1.05,0.0,13.74,0.0,0.03,1.5,0,0,0.0,0.0,0.7,0.23,0.08,0.28,0.03,0.03,0.05,0.05,0.06,0.0,0.0,1.79</t>
   </si>
   <si>
     <t>arg145468</t>
@@ -172,7 +172,7 @@
     <t>All we can say is a big IF because we are not yet 100% sure if this nation itself could lead the whole world. Who knows maybe in the future that India could fail to lead us. There are still other countries who are more progressive, more literated, more powerful than India, like the USA, United Kingdom, Russia, Japan, etc. This nation doesn't have yet enought potentials and ability to sustain the needs of the people. India is not yet that full of technologies like in the Americas. Well in fact technology is one of the most sophisticated and essential inventions ever created.</t>
   </si>
   <si>
-    <t>580,0.67,14.68,0.0,0.02,1.0,0.0,0.03,3.52,0.3,0.4,0.35,0.0,0.0</t>
+    <t>17.17,5.63,2.33,2.51,0.93,0.67,14.68,0.0,0.02,1.0,3,1,0.0,0.03,3.52,0.17,0.1,0.15,0.1,0.1,0.03,0.06,0.11,0.0,0.0,2.86</t>
   </si>
   <si>
     <t>arg123178</t>
@@ -181,7 +181,7 @@
     <t>i think with this growing condition Idia cannot replace other developed countries like USA LONDON AND other countries.  Because most of the people are illitrate here so i think india cant.</t>
   </si>
   <si>
-    <t>188,0.5,16.53,0.0,0.06,1.0,0.0,0.1,1.41,0.15,0.2,0.2,0.0,0.0</t>
+    <t>15.5,6.06,0.7,0.84,0.84,0.5,16.53,0.0,0.06,1.0,0,0,0.0,0.1,1.41,0.19,0.26,0.16,0.06,0.06,0.0,0.0,0.0,0.0,0.0,2.09</t>
   </si>
   <si>
     <t>arg129488</t>
@@ -190,7 +190,7 @@
     <t>Russell Peters is a master at making fun of these people.</t>
   </si>
   <si>
-    <t>57,0.0,11.44,0.0,0.0,1.0,0.0,0.0,0.7,0.05,0.05,0.05,0.0,0.0</t>
+    <t>11.0,5.18,0.25,0.42,0.59,0.0,11.44,0.0,0.0,1.0,0,0,0.0,0.0,0.7,0.27,0.0,0.18,0.0,0.0,0.0,0.0,0.0,0.0,0.0,2.17</t>
   </si>
   <si>
     <t>arg207311</t>
@@ -199,7 +199,7 @@
     <t>nope last time i checked rags were for scrubbing toilets not fricken headgear. Whooo! USA</t>
   </si>
   <si>
-    <t>89,0.0,12.38,0.0,0.13,0.67,0.0,0.07,0.7,0.05,0.1,0.05,0.15,0.0</t>
+    <t>5.0,5.93,0.34,1.26,0.27,0.0,12.38,0.0,0.13,0.67,0,0,0.0,0.07,0.7,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,1.0</t>
   </si>
   <si>
     <t>arg119997</t>
@@ -208,7 +208,7 @@
     <t>The increasing population means less land, and less land means a big crowd on every place. India is able to win gold medal of corrosion, terrorism , illeteracy, violence, etc.</t>
   </si>
   <si>
-    <t>175,0.0,16.02,0.0,0.03,1.0,0.0,0.0,0.7,0.0,0.15,0.15,0.0,0.0</t>
+    <t>15.0,5.83,0.68,0.84,0.81,0.0,16.02,0.0,0.03,1.0,0,0,0.0,0.0,0.7,0.37,0.23,0.17,0.03,0.03,0.0,0.07,0.06,0.0,0.0,1.4</t>
   </si>
   <si>
     <t>arg106273</t>
@@ -217,7 +217,7 @@
     <t>India will never lead the world as long as no one can understand what they are saying with their freaking accent ;)</t>
   </si>
   <si>
-    <t>115,0.0,14.15,0.0,0.0,0.0,0.0,0.05,0.7,0.1,0.2,0.2,0.05,0.0</t>
+    <t>22.0,5.23,0.5,0.42,1.19,0.0,14.15,0.0,0.0,0.0,0,0,0.0,0.05,0.7,0.18,0.05,0.18,0.14,0.14,0.09,0.05,0.0,0.0,0.0,6.0</t>
   </si>
   <si>
     <t>arg122478</t>
@@ -226,7 +226,7 @@
     <t>i think, the india is not ready to lead the world because of many reasons..  1.) the politians of our country are involved in black money cases. they try to gain or earn money as possible.  2.) they always try to make a big issue of useless topics. e.g., if a politian says something about another politian, they try to make it a big issue .</t>
   </si>
   <si>
-    <t>341,0.14,10.49,0.0,0.06,1.43,0.0,0.03,0.0,0.2,0.3,0.3,0.05,0.0</t>
+    <t>9.43,5.17,1.49,2.93,0.51,0.14,10.49,0.0,0.06,1.43,2,0,0.0,0.03,0.0,0.15,0.11,0.21,0.03,0.03,0.08,0.0,0.0,0.0,0.0,3.65</t>
   </si>
   <si>
     <t>arg110540</t>
@@ -235,7 +235,7 @@
     <t>no way! screw off! China will dominate, if not, US will. india will never get the chance to ruin the world!</t>
   </si>
   <si>
-    <t>107,0.0,6.84,0.0,0.0,1.0,0.0,0.05,1.41,0.1,0.15,0.15,0.05,0.0</t>
+    <t>5.25,5.1,0.48,1.68,0.28,0.0,6.84,0.0,0.0,1.0,0,0,0.0,0.05,1.41,0.29,0.1,0.19,0.05,0.05,0.0,0.0,0.0,0.0,0.0,3.71</t>
   </si>
   <si>
     <t>arg108968</t>
@@ -244,7 +244,7 @@
     <t>When the U.S. fought the Brits for their independence, the Brits wore a red uniform. Every time the Americans saw a British soldier, they would yell, "The red coats are coming, the red coats are coming."  If India ever tried to take over the U.S., Americans would be forced to yell, "The red dots are coming, the red dots are coming." ;)</t>
   </si>
   <si>
-    <t>337,0.0,12.99,0.0,0.0,1.75,0.0,0.05,0.7,0.1,0.2,0.2,0.1,0.0</t>
+    <t>15.5,5.44,1.4,1.68,0.84,0.0,12.99,0.0,0.0,1.75,0,0,0.0,0.05,0.7,0.18,0.16,0.24,0.02,0.02,0.03,0.02,0.06,0.0,0.0,1.69</t>
   </si>
   <si>
     <t>arg132199</t>
@@ -253,7 +253,7 @@
     <t>according to a recent report 50% scientists in NASA are indian IITians, just imagine that if those scientists will join ISRO then our status,value and astronomical knowledge of india will definetly increase.  Now,think abt. IITians,students who are qualifying iit, they are known to be superbrain.If India is capable of opening hitech institutions,then why we are unable provide them a perfect job of their level.we are giving international status of education.then why unable to take best advantages from them.this is due to brain drain,lack of industrial development,suitable working environment as well as proper salary.so its the need of the hour to improve our industrial sector.</t>
   </si>
   <si>
-    <t>684,0.0,18.17,0.0,0.16,2.67,0.0,0.03,2.11,0.1,0.2,0.15,0.05,0.0</t>
+    <t>34.67,6.58,2.36,1.26,1.87,0.0,18.17,0.0,0.16,2.67,2,1,0.0,0.03,2.11,0.23,0.15,0.18,0.05,0.05,0.07,0.07,0.17,0.0,0.0,0.77</t>
   </si>
   <si>
     <t>arg217848</t>
@@ -262,7 +262,7 @@
     <t>Why should India lead the world???!!!  Kill all the politicians first and India will be developed tomorrow.</t>
   </si>
   <si>
-    <t>107,0.0,14.96,0.0,0.0,3.5,0.0,0.0,0.7,0.1,0.15,0.25,0.0,0.0</t>
+    <t>8.5,6.29,0.38,0.84,0.46,0.0,14.96,0.0,0.0,3.5,0,0,0.0,0.0,0.7,0.29,0.06,0.24,0.0,0.0,0.0,0.06,0.0,0.0,0.0,5.86</t>
   </si>
   <si>
     <t>arg105946</t>
@@ -271,7 +271,7 @@
     <t>Nah, they can't even organize their damned streets! They bathe in the same river in which they bury their dead and defecate in - the Ganges! They're extremely poor - they can't even manage their own budget, much less a planet!  I'm going to get down-voted and insulted, but everything I have written is the truth.</t>
   </si>
   <si>
-    <t>313,0.25,12.92,0.0,0.04,1.0,0.0,0.0,0.7,0.0,0.0,0.0,0.05,0.2</t>
+    <t>14.0,5.59,1.27,1.68,0.76,0.25,12.92,0.0,0.04,1.0,0,0,0.0,0.0,0.7,0.16,0.11,0.21,0.09,0.09,0.14,0.0,0.0,0.2,0.2,0.95</t>
   </si>
   <si>
     <t>arg133726</t>
@@ -280,7 +280,7 @@
     <t>syona if look at glance, then most of us are unable to specify any solid solutions by which we can remove the hurdle in our progress from root.we all are very much aware of problems but unable to give solutions.they are criticizing government,terrorism and so on.no one realizes that being a citizen what is our duty?  everyone should understand abt. their importance and role for country.Because a good citizen,a criminal,terrorist,corrupted politician, everyone is human, then why a human is creating problem for another human.I hope you will think my views and reply me soon.</t>
   </si>
   <si>
-    <t>578,0.33,15.99,0.0,0.11,2.67,0.0,0.0,0.0,0.1,0.15,0.2,0.05,0.2</t>
+    <t>31.33,6.15,2.13,1.26,1.69,0.33,15.99,0.0,0.11,2.67,0,0,0.0,0.0,0.0,0.18,0.11,0.19,0.04,0.04,0.09,0.04,0.06,0.2,0.2,1.18</t>
   </si>
   <si>
     <t>arg118214</t>
@@ -289,7 +289,7 @@
     <t>i dont think soooo even as an indian citizen.........because of soo much unemployment i dont think the gdp of india will increase in the next 5 years....... they dont even have enough funds to feed all the poor..how can we even imagine them to lead the world...........</t>
   </si>
   <si>
-    <t>269,0.0,13.08,0.0,0.15,29.0,0.0,0.0,0.0,0.1,0.25,0.2,0.0,0.0</t>
+    <t>47.0,5.72,1.06,0.42,2.54,0.0,13.08,0.0,0.15,29.0,1,0,0.0,0.0,0.0,0.19,0.13,0.19,0.09,0.09,0.06,0.02,0.06,0.0,0.0,2.87</t>
   </si>
   <si>
     <t>arg110562</t>
@@ -298,7 +298,7 @@
     <t>India does not have the potential to lead the world because the country is full of corruption, corruption in politicians ,numerous religion, fight between various religions, and a lot more............................</t>
   </si>
   <si>
-    <t>216,1.0,19.28,0.0,0.0,28.0,0.0,0.0,0.7,0.15,0.3,0.4,0.0,0.0</t>
+    <t>30.0,7.2,0.68,0.42,1.62,1.0,19.28,0.0,0.0,28.0,0,0,0.0,0.0,0.7,0.3,0.17,0.17,0.03,0.03,0.0,0.07,0.0,0.0,0.0,5.58</t>
   </si>
   <si>
     <t>arg118660</t>
@@ -307,7 +307,7 @@
     <t>India has the potential to lead because it has the second largest man power n third largest army in the world n it is a country full of hopes n aspirations n for Indians nothing is impossible, n we r proud to be Indians n we will lead the world n be the king of the world in every manner. even 34% scientists in NASA are Indians.</t>
   </si>
   <si>
-    <t>329,0.5,11.99,0.0,0.0,1.0,0.0,0.03,2.11,0.15,0.3,0.25,0.0,0.0</t>
+    <t>33.5,4.91,1.52,0.84,1.81,0.5,11.99,0.0,0.0,1.0,2,1,0.0,0.03,2.11,0.21,0.15,0.16,0.01,0.01,0.06,0.04,0.06,0.0,0.0,2.95</t>
   </si>
 </sst>
 </file>
